--- a/koRailDocument/table/포인트_v2014.11.04.xlsx
+++ b/koRailDocument/table/포인트_v2014.11.04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11865"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>카테고리</t>
   </si>
@@ -67,10 +67,6 @@
   </si>
   <si>
     <t>VCHAR2</t>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PK</t>
@@ -123,14 +119,6 @@
   </si>
   <si>
     <t>사용일자</t>
-  </si>
-  <si>
-    <t>PINT_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아이디</t>
@@ -418,9 +406,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -438,6 +423,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -757,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -794,8 +782,8 @@
         <v>3</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="12" t="s">
-        <v>41</v>
+      <c r="C2" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -814,7 +802,7 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
@@ -853,215 +841,199 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
+        <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="12">
+        <v>30</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="14">
+        <f t="shared" ref="A6:A12" si="0">ROW()-4</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E6" s="9">
+        <v>10</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="9">
+        <v>10</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="9">
+        <v>10</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="9">
+        <v>10</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E10" s="9">
+        <v>50</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="13" t="s">
+      <c r="C11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="9">
+        <v>10</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="12">
-        <v>2</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="13">
-        <v>30</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="8">
-        <v>3</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="10">
-        <v>10</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="10">
-        <v>10</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="8">
-        <v>5</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="10">
-        <v>10</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="8">
-        <v>6</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="10">
-        <v>10</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="8">
-        <v>7</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="10">
-        <v>50</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="8">
-        <v>8</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="10">
-        <v>10</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="8">
-        <v>9</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:I13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="A2:B2"/>
